--- a/data/trans_camb/IP17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -0,62</t>
+          <t>-5,12; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 0,7</t>
+          <t>-8,96; 3,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,8</t>
+          <t>-8,46; 4,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,13</t>
+          <t>-3,06; 8,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 8,67</t>
+          <t>-5,14; 5,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,26</t>
+          <t>-5,47; 7,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,43</t>
+          <t>-2,56; 6,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,48</t>
+          <t>-5,77; 2,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,9</t>
+          <t>-5,53; 3,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,22%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-3,96%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,9; -4,03</t>
+          <t>-21,73; 41,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 4,7</t>
+          <t>-37,4; 18,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 12,04</t>
+          <t>-35,31; 24,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 73,51</t>
+          <t>-15,31; 67,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 86,95</t>
+          <t>-26,6; 44,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 42,49</t>
+          <t>-28,79; 54,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 10,75</t>
+          <t>-13,09; 38,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 26,09</t>
+          <t>-26,81; 17,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 14,33</t>
+          <t>-25,73; 22,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,34</t>
+          <t>-10,68; -0,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 3,42</t>
+          <t>-9,27; 0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,02</t>
+          <t>-8,24; 1,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 8,97</t>
+          <t>-2,7; 7,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,91</t>
+          <t>-1,15; 8,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,37</t>
+          <t>-4,67; 4,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,39</t>
+          <t>-5,17; 1,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,91</t>
+          <t>-3,76; 3,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,59</t>
+          <t>-4,93; 1,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>-29,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,37%</t>
+          <t>-22,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-10,56%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 41,25</t>
+          <t>-50,9; -4,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 18,64</t>
+          <t>-44,7; 4,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 24,19</t>
+          <t>-39,33; 12,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 67,97</t>
+          <t>-18,87; 73,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 44,82</t>
+          <t>-8,29; 86,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 54,33</t>
+          <t>-31,43; 42,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 38,9</t>
+          <t>-29,91; 10,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 17,7</t>
+          <t>-22,64; 26,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 22,11</t>
+          <t>-29,17; 14,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-12,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>-7,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 12,92</t>
+          <t>-2,33; 16,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,86</t>
+          <t>-8,02; 11,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 2,04</t>
+          <t>-13,86; 7,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 12,11</t>
+          <t>-10,08; 9,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 5,87</t>
+          <t>-17,83; 2,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,76; -2,13</t>
+          <t>-24,78; 0,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,59</t>
+          <t>-3,52; 10,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 4,09</t>
+          <t>-9,94; 4,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -2,26</t>
+          <t>-15,35; 0,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-18,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,88%</t>
+          <t>-30,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,6%</t>
+          <t>-20,4%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 51,82</t>
+          <t>-6,49; 60,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 26,44</t>
+          <t>-21,43; 42,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 7,53</t>
+          <t>-37,69; 26,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 45,28</t>
+          <t>-21,54; 27,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 21,5</t>
+          <t>-37,68; 6,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -6,94</t>
+          <t>-54,02; 1,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 37,81</t>
+          <t>-9,43; 31,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 14,75</t>
+          <t>-24,94; 12,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,63; -8,0</t>
+          <t>-38,85; 2,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,34</t>
+          <t>-5,61; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 3,42</t>
+          <t>-11,22; 0,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,02</t>
+          <t>-12,17; 1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 8,97</t>
+          <t>-2,12; 10,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,91</t>
+          <t>-5,2; 6,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,37</t>
+          <t>-8,26; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,39</t>
+          <t>-1,61; 7,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,91</t>
+          <t>-6,36; 1,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,59</t>
+          <t>-8,64; 0,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,37%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-22,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-17,1%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 41,25</t>
+          <t>-20,43; 33,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 18,64</t>
+          <t>-41,52; 1,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 24,19</t>
+          <t>-45,44; 4,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 67,97</t>
+          <t>-9,64; 58,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 44,82</t>
+          <t>-22,86; 39,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 54,33</t>
+          <t>-37,59; 26,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 38,9</t>
+          <t>-6,91; 38,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 17,7</t>
+          <t>-26,62; 9,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 22,11</t>
+          <t>-35,47; 3,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -0,62</t>
+          <t>-13,35; -0,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 0,7</t>
+          <t>-7,07; 6,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,8</t>
+          <t>-9,48; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,13</t>
+          <t>-5,75; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 8,67</t>
+          <t>-4,85; 8,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,26</t>
+          <t>-5,13; 9,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,43</t>
+          <t>-8,09; 2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,48</t>
+          <t>-4,24; 5,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,9</t>
+          <t>-4,92; 5,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,22%</t>
+          <t>-35,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,9; -4,03</t>
+          <t>-57,82; -1,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 4,7</t>
+          <t>-30,55; 45,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 12,04</t>
+          <t>-40,91; 31,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 73,51</t>
+          <t>-29,36; 75,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 86,95</t>
+          <t>-25,72; 73,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 42,49</t>
+          <t>-27,84; 82,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 10,75</t>
+          <t>-38,71; 16,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 26,09</t>
+          <t>-20,95; 39,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 14,33</t>
+          <t>-24,73; 34,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,79</t>
+          <t>-7,78; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,63</t>
+          <t>-11,08; 0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -1,64</t>
+          <t>-7,86; 3,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,06</t>
+          <t>-3,57; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,06</t>
+          <t>-2,53; 8,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -0,59</t>
+          <t>-5,62; 4,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,32</t>
+          <t>-4,2; 4,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,75</t>
+          <t>-5,37; 2,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -2,21</t>
+          <t>-5,06; 2,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,92%</t>
+          <t>-32,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-11,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>-8,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-9,9%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 17,95</t>
+          <t>-40,98; 27,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 3,17</t>
+          <t>-58,36; 5,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -7,96</t>
+          <t>-41,14; 30,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 39,19</t>
+          <t>-29,52; 91,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 22,67</t>
+          <t>-19,92; 109,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,27; -3,44</t>
+          <t>-42,73; 59,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 22,06</t>
+          <t>-26,97; 38,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 8,35</t>
+          <t>-35,27; 24,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,38; -11,02</t>
+          <t>-32,94; 21,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 3,6</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 0,79</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; -1,46</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 6,99</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,48</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; -0,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 4,39</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 1,63</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; -2,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,92%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-22,2%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-21,98%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-21,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-13,42; 17,42</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-25,57; 3,82</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-34,76; -6,74</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 40,1</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-12,76; 24,46</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-36,24; -5,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 21,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 8,68</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; -10,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 16,62</t>
+          <t>-3,92; 16,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 11,64</t>
+          <t>-7,82; 10,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 7,46</t>
+          <t>-12,83; 9,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 9,35</t>
+          <t>-9,85; 9,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 2,29</t>
+          <t>-18,03; 2,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 0,56</t>
+          <t>-23,79; -0,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 10,42</t>
+          <t>-3,0; 10,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 4,5</t>
+          <t>-9,83; 3,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 0,5</t>
+          <t>-15,74; 0,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 60,49</t>
+          <t>-9,8; 59,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 42,39</t>
+          <t>-21,13; 37,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 26,34</t>
+          <t>-34,79; 32,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 27,58</t>
+          <t>-21,28; 26,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 6,69</t>
+          <t>-37,88; 6,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 1,69</t>
+          <t>-52,23; -0,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 31,83</t>
+          <t>-7,31; 31,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 12,24</t>
+          <t>-24,54; 11,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 2,1</t>
+          <t>-39,63; 0,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 6,94</t>
+          <t>-4,97; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 0,25</t>
+          <t>-10,17; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 1,03</t>
+          <t>-11,46; 0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 10,19</t>
+          <t>-2,39; 9,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,89</t>
+          <t>-5,04; 7,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 4,61</t>
+          <t>-8,43; 4,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,45</t>
+          <t>-2,02; 6,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,85</t>
+          <t>-6,28; 2,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 0,7</t>
+          <t>-7,98; 1,07</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 33,25</t>
+          <t>-18,33; 35,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 1,63</t>
+          <t>-37,9; 5,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 4,81</t>
+          <t>-44,74; 4,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 58,88</t>
+          <t>-10,99; 55,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 39,62</t>
+          <t>-22,94; 41,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 26,2</t>
+          <t>-38,49; 25,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 38,1</t>
+          <t>-8,36; 34,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 9,49</t>
+          <t>-26,41; 10,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 3,58</t>
+          <t>-33,98; 5,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -0,24</t>
+          <t>-14,02; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 6,84</t>
+          <t>-6,98; 7,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 4,78</t>
+          <t>-9,02; 5,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,54</t>
+          <t>-5,72; 8,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,43</t>
+          <t>-4,69; 8,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 9,85</t>
+          <t>-4,61; 9,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 2,37</t>
+          <t>-7,43; 2,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,78</t>
+          <t>-4,76; 5,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,28</t>
+          <t>-5,89; 4,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,82; -1,48</t>
+          <t>-59,9; 5,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 45,49</t>
+          <t>-30,69; 46,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 31,06</t>
+          <t>-38,73; 32,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 75,93</t>
+          <t>-29,79; 69,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 73,09</t>
+          <t>-25,76; 73,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 82,76</t>
+          <t>-25,82; 80,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 16,91</t>
+          <t>-37,36; 18,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 39,93</t>
+          <t>-22,47; 38,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 34,05</t>
+          <t>-29,05; 30,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,43</t>
+          <t>-8,22; 3,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 0,66</t>
+          <t>-11,08; 0,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 3,87</t>
+          <t>-7,47; 3,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 7,53</t>
+          <t>-3,93; 7,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 8,51</t>
+          <t>-2,06; 9,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,28</t>
+          <t>-5,71; 3,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,17</t>
+          <t>-3,94; 4,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,75</t>
+          <t>-5,14; 2,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,26</t>
+          <t>-5,21; 2,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 27,4</t>
+          <t>-41,9; 24,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 5,9</t>
+          <t>-58,07; 6,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 30,17</t>
+          <t>-37,76; 28,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 91,24</t>
+          <t>-31,0; 95,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 109,52</t>
+          <t>-18,33; 116,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 59,61</t>
+          <t>-43,21; 45,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 38,31</t>
+          <t>-26,47; 38,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 24,11</t>
+          <t>-34,34; 22,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 21,14</t>
+          <t>-33,9; 18,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,6</t>
+          <t>-3,16; 4,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,79</t>
+          <t>-5,7; 1,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,46</t>
+          <t>-8,57; -1,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,99</t>
+          <t>-0,12; 6,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,48</t>
+          <t>-2,95; 4,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,98</t>
+          <t>-7,77; -0,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,39</t>
+          <t>-0,89; 4,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,63</t>
+          <t>-3,4; 1,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -2,13</t>
+          <t>-7,05; -2,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 17,42</t>
+          <t>-12,73; 20,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 3,82</t>
+          <t>-24,15; 4,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -6,74</t>
+          <t>-35,5; -7,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 40,1</t>
+          <t>-0,56; 38,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 24,46</t>
+          <t>-13,54; 23,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -5,33</t>
+          <t>-36,31; -3,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 21,84</t>
+          <t>-3,9; 21,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 8,68</t>
+          <t>-15,35; 6,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,42; -10,64</t>
+          <t>-31,45; -11,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-7,45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-12,87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,74</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1,49</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-7,45</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,74</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-7,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 16,58</t>
+          <t>-10,49; 9,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 10,6</t>
+          <t>-18,0; 2,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 9,0</t>
+          <t>-23,38; -0,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 9,73</t>
+          <t>-2,95; 16,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 2,3</t>
+          <t>-8,34; 10,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,79; -0,99</t>
+          <t>-13,98; 7,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 10,42</t>
+          <t>-3,41; 9,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 3,85</t>
+          <t>-9,65; 3,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 0,5</t>
+          <t>-15,75; -0,26</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-18,08%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-31,23%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>20,37%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>4,51%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,66%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,34%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-18,08%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-9,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-20,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 59,91</t>
+          <t>-22,9; 28,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 37,99</t>
+          <t>-37,75; 6,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 32,07</t>
+          <t>-52,23; -1,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 26,6</t>
+          <t>-7,84; 59,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 6,68</t>
+          <t>-21,51; 38,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,23; -0,97</t>
+          <t>-36,71; 27,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 31,08</t>
+          <t>-8,12; 30,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 11,59</t>
+          <t>-23,42; 9,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 0,61</t>
+          <t>-39,7; 0,04</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,67</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-5,05</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,37</t>
+          <t>-2,04; 9,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 0,8</t>
+          <t>-5,02; 6,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,96</t>
+          <t>-8,44; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,52</t>
+          <t>-5,37; 7,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,04</t>
+          <t>-10,72; 1,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 4,05</t>
+          <t>-11,55; 1,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 6,73</t>
+          <t>-1,68; 7,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,09</t>
+          <t>-6,41; 2,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 1,07</t>
+          <t>-8,25; 0,64</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-10,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,09%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-21,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-22,68%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,64%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-23,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>-17,16%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 35,44</t>
+          <t>-9,58; 58,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,9; 5,15</t>
+          <t>-22,16; 40,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,74; 4,68</t>
+          <t>-38,54; 23,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 55,01</t>
+          <t>-19,29; 35,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 41,1</t>
+          <t>-39,03; 5,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 25,95</t>
+          <t>-43,39; 8,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 34,91</t>
+          <t>-6,96; 37,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 10,65</t>
+          <t>-26,0; 10,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 5,36</t>
+          <t>-34,47; 3,82</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-6,82</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,23</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 0,52</t>
+          <t>-5,27; 8,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 7,08</t>
+          <t>-5,44; 9,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 5,25</t>
+          <t>-4,71; 10,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 8,36</t>
+          <t>-13,44; -0,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 8,33</t>
+          <t>-7,66; 6,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 9,93</t>
+          <t>-9,04; 5,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,9</t>
+          <t>-7,47; 2,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,76</t>
+          <t>-4,36; 5,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 4,54</t>
+          <t>-4,75; 5,38</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-35,18%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-1,2%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-10,71%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,34%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>-10,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 5,18</t>
+          <t>-26,54; 81,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 46,39</t>
+          <t>-27,64; 80,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 32,7</t>
+          <t>-24,22; 91,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 69,54</t>
+          <t>-58,62; 2,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 73,26</t>
+          <t>-32,95; 46,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 80,45</t>
+          <t>-39,38; 34,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,36; 18,75</t>
+          <t>-36,84; 17,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 38,35</t>
+          <t>-21,63; 35,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 30,89</t>
+          <t>-24,11; 37,26</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-5,29</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 3,35</t>
+          <t>-3,93; 6,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 0,77</t>
+          <t>-2,39; 8,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 3,51</t>
+          <t>-6,36; 3,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 7,36</t>
+          <t>-7,37; 4,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 9,33</t>
+          <t>-10,74; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,66</t>
+          <t>-7,92; 3,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 4,41</t>
+          <t>-3,94; 3,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,7</t>
+          <t>-5,18; 2,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,07</t>
+          <t>-6,1; 1,86</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>16,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-14,88%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-11,85%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-32,86%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-11,89%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>16,99%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>30,28%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>-13,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-13,64%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 24,8</t>
+          <t>-33,71; 84,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 6,17</t>
+          <t>-18,53; 109,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 28,05</t>
+          <t>-48,73; 40,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 95,6</t>
+          <t>-38,39; 32,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 116,5</t>
+          <t>-57,03; 6,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 45,66</t>
+          <t>-41,4; 23,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 38,58</t>
+          <t>-26,15; 29,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 22,52</t>
+          <t>-34,64; 26,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 18,33</t>
+          <t>-38,62; 17,44</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,31</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-2,67</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-4,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,08</t>
+          <t>-0,3; 7,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,0</t>
+          <t>-2,89; 4,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -1,55</t>
+          <t>-8,04; -0,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,92</t>
+          <t>-3,38; 3,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,07</t>
+          <t>-6,38; 0,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,76</t>
+          <t>-8,79; -1,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,29</t>
+          <t>-0,73; 4,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,33</t>
+          <t>-3,47; 1,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -2,25</t>
+          <t>-7,14; -2,21</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-23,14%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>1,4%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-11,92%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-22,2%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>17,15%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-22,8%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 20,44</t>
+          <t>-1,36; 39,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 4,82</t>
+          <t>-13,2; 22,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-35,5; -7,4</t>
+          <t>-37,96; -3,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 38,47</t>
+          <t>-13,77; 17,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 23,29</t>
+          <t>-26,02; 3,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,31; -3,93</t>
+          <t>-35,68; -8,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 21,56</t>
+          <t>-3,07; 22,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 6,61</t>
+          <t>-15,78; 8,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,45; -11,17</t>
+          <t>-32,84; -11,36</t>
         </is>
       </c>
     </row>
